--- a/AAAGameData/DataTables/Core/LanguagesTable.xlsx
+++ b/AAAGameData/DataTables/Core/LanguagesTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GF_X\AAAGameData\DataTables\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MMW\AAAGameData\DataTables\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BB9348-C429-4151-8646-D562EA36CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -92,7 +93,7 @@
     <t>한국어</t>
   </si>
   <si>
-    <t>LanguageIcon</t>
+    <t>AssetName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,48 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Flags/Icon_Flag_chn.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Flags/Icon_Flag_chn.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Flags/Icon_Flag_eng.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Flags/Icon_Flag_kor.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Flags/Icon_Flag_jpn.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChineseSimplified</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,8 +150,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -525,22 +484,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -559,16 +517,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -579,16 +534,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -599,33 +551,27 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="15">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -633,33 +579,27 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" ht="15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -667,37 +607,31 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:AA3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:Z3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"int,bool,enum,double,string[],string,float,uint,short,Vector4,Vector2,Vector3Int,Vector3,Color,Color32,Vector3[],Vector2Int,int[],float[],bool[],double[],ushort,ulong,int[][],double[][],decimal,long,float[][],bool[][],Rect,Quaternion,DateTime,sbyte,char"</formula1>
     </dataValidation>
   </dataValidations>
